--- a/Daftar Error dan Solusi.xlsx
+++ b/Daftar Error dan Solusi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ValueStreamInternational\sismiop\Troubleshooting Sismiop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ValueStreamInternational\Sismiop\Troubleshooting Sismiop\oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232EFD1F-7BF6-49A3-949C-416E7FD00B30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D14A74-C19C-45DE-99EE-18FD31467D59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="6480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,6 +186,21 @@
   <si>
     <t>Jalankan file semua.txt (cek isinya jika ada path / folder yang tidak sesuai, maka sesuaikan):
 cara mengeksekusinya: sql&gt; @/[path]/semua.txt</t>
+  </si>
+  <si>
+    <t>ORA-01658: unable to create INITIAL extent for segment in tablespace USERS</t>
+  </si>
+  <si>
+    <t>alter database datafile '/SSD/u01/app/oracle/oradata/sismiop/users02.dbf' autoextend on maxsize unlimited;</t>
+  </si>
+  <si>
+    <t>perbesar file users dengan index yang paling besar, misal &gt; users02.dbf</t>
+  </si>
+  <si>
+    <t>ORA-01045: user ... lacks CREATE SESSION privilege; logon denied</t>
+  </si>
+  <si>
+    <t>eksekusi script &gt; grant create session to [user]</t>
   </si>
   <si>
     <r>
@@ -225,23 +240,28 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Bisa juga karena space harddisk kosong / tak cukup</t>
+      <t xml:space="preserve">Bisa juga karena space harddisk kosong / tak cukup
+</t>
     </r>
-  </si>
-  <si>
-    <t>ORA-01658: unable to create INITIAL extent for segment in tablespace USERS</t>
-  </si>
-  <si>
-    <t>alter database datafile '/SSD/u01/app/oracle/oradata/sismiop/users02.dbf' autoextend on maxsize unlimited;</t>
-  </si>
-  <si>
-    <t>perbesar file users dengan index yang paling besar, misal &gt; users02.dbf</t>
-  </si>
-  <si>
-    <t>ORA-01045: user ... lacks CREATE SESSION privilege; logon denied</t>
-  </si>
-  <si>
-    <t>eksekusi script &gt; grant create session to [user]</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Bisa juga harus meghentikan service oraclenya, kemudian dijalankan kembali</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -766,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -1004,13 +1024,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -1018,10 +1038,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="6"/>
     </row>
